--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1237,6 +1237,33 @@
   </si>
   <si>
     <t>Pt(diabetes)—Fodundersøgelse; arb.akt.(ja;nej;ej relevant) = ?</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>Pt—Skridt; antal per dag (værdi) = ?</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>Pt—Skridt; antal per uge (værdi) = ?</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
+  </si>
+  <si>
+    <t>Pt—Skridt; antal (værdi) = ?</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3297,6 +3324,48 @@
         <v>407</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
+    <sheet name="Properties" r:id="rId4" sheetId="2"/>
+    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -129,10 +130,22 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>phmr-unit</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Display</t>
@@ -1582,6 +1595,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1590,1780 +1640,1780 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1132">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -2992,46 +2992,70 @@
     <t>2. digitus;højre fod</t>
   </si>
   <si>
+    <t>2&amp;#46; digitus;højre fod</t>
+  </si>
+  <si>
     <t>MCS89217</t>
   </si>
   <si>
     <t>2. digitus;venstre fod</t>
   </si>
   <si>
+    <t>2&amp;#46; digitus;venstre fod</t>
+  </si>
+  <si>
     <t>MCS89218</t>
   </si>
   <si>
     <t>3. digitus;højre fod</t>
   </si>
   <si>
+    <t>3&amp;#46; digitus;højre fod</t>
+  </si>
+  <si>
     <t>MCS89219</t>
   </si>
   <si>
     <t>3. digitus;venstre fod</t>
   </si>
   <si>
+    <t>3&amp;#46; digitus;venstre fod</t>
+  </si>
+  <si>
     <t>MCS89220</t>
   </si>
   <si>
     <t>4. digitus;højre fod</t>
   </si>
   <si>
+    <t>4&amp;#46; digitus;højre fod</t>
+  </si>
+  <si>
     <t>MCS89221</t>
   </si>
   <si>
     <t>4. digitus;venstre fod</t>
   </si>
   <si>
+    <t>4&amp;#46; digitus;venstre fod</t>
+  </si>
+  <si>
     <t>MCS89222</t>
   </si>
   <si>
     <t>5. digitus;højre fod</t>
   </si>
   <si>
+    <t>5&amp;#46; digitus;højre fod</t>
+  </si>
+  <si>
     <t>MCS89223</t>
   </si>
   <si>
     <t>5. digitus;venstre fod</t>
+  </si>
+  <si>
+    <t>5&amp;#46; digitus;venstre fod</t>
   </si>
   <si>
     <t>MCS89224</t>
@@ -8996,7 +9020,7 @@
         <v>991</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="376">
@@ -9004,13 +9028,13 @@
         <v>47</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="377">
@@ -9018,13 +9042,13 @@
         <v>47</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D377" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="378">
@@ -9032,13 +9056,13 @@
         <v>47</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D378" t="s" s="2">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="379">
@@ -9046,13 +9070,13 @@
         <v>47</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="D379" t="s" s="2">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="380">
@@ -9060,13 +9084,13 @@
         <v>47</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D380" t="s" s="2">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="381">
@@ -9074,13 +9098,13 @@
         <v>47</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="382">
@@ -9088,13 +9112,13 @@
         <v>47</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D382" t="s" s="2">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="383">
@@ -9102,13 +9126,13 @@
         <v>47</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="D383" t="s" s="2">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="384">
@@ -9116,13 +9140,13 @@
         <v>47</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="385">
@@ -9130,13 +9154,13 @@
         <v>47</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="386">
@@ -9144,13 +9168,13 @@
         <v>47</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D386" t="s" s="2">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="387">
@@ -9158,13 +9182,13 @@
         <v>47</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="388">
@@ -9172,13 +9196,13 @@
         <v>47</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D388" t="s" s="2">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="389">
@@ -9186,13 +9210,13 @@
         <v>47</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="D389" t="s" s="2">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="390">
@@ -9200,13 +9224,13 @@
         <v>47</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="391">
@@ -9214,7 +9238,7 @@
         <v>47</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="C391" t="s" s="2">
         <v>763</v>
@@ -9228,7 +9252,7 @@
         <v>47</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="C392" t="s" s="2">
         <v>765</v>
@@ -9242,13 +9266,13 @@
         <v>47</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="394">
@@ -9256,13 +9280,13 @@
         <v>47</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="395">
@@ -9270,13 +9294,13 @@
         <v>47</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="396">
@@ -9284,13 +9308,13 @@
         <v>47</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="D396" t="s" s="2">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="397">
@@ -9298,13 +9322,13 @@
         <v>47</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D397" t="s" s="2">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="398">
@@ -9312,13 +9336,13 @@
         <v>47</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="399">
@@ -9326,13 +9350,13 @@
         <v>47</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="400">
@@ -9340,13 +9364,13 @@
         <v>47</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D400" t="s" s="2">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="401">
@@ -9354,13 +9378,13 @@
         <v>47</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="D401" t="s" s="2">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="402">
@@ -9368,13 +9392,13 @@
         <v>47</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D402" t="s" s="2">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="403">
@@ -9382,13 +9406,13 @@
         <v>47</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="D403" t="s" s="2">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="404">
@@ -9396,13 +9420,13 @@
         <v>47</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="D404" t="s" s="2">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="405">
@@ -9410,13 +9434,13 @@
         <v>47</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="406">
@@ -9424,13 +9448,13 @@
         <v>47</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="D406" t="s" s="2">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="407">
@@ -9438,13 +9462,13 @@
         <v>47</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D407" t="s" s="2">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="408">
@@ -9452,13 +9476,13 @@
         <v>47</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="D408" t="s" s="2">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="409">
@@ -9466,13 +9490,13 @@
         <v>47</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="D409" t="s" s="2">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="410">
@@ -9480,13 +9504,13 @@
         <v>47</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="411">
@@ -9494,13 +9518,13 @@
         <v>47</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="412">
@@ -9508,13 +9532,13 @@
         <v>47</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="D412" t="s" s="2">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="413">
@@ -9522,13 +9546,13 @@
         <v>47</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="D413" t="s" s="2">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="414">
@@ -9536,13 +9560,13 @@
         <v>47</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="D414" t="s" s="2">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="415">
@@ -9550,13 +9574,13 @@
         <v>47</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="D415" t="s" s="2">
-        <v>1077</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="416">
@@ -9564,13 +9588,13 @@
         <v>47</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="D416" t="s" s="2">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="417">
@@ -9578,13 +9602,13 @@
         <v>47</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="418">
@@ -9592,13 +9616,13 @@
         <v>47</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="D418" t="s" s="2">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="419">
@@ -9606,13 +9630,13 @@
         <v>47</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="D419" t="s" s="2">
-        <v>1086</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="420">
@@ -9620,13 +9644,13 @@
         <v>47</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D420" t="s" s="2">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="421">
@@ -9634,13 +9658,13 @@
         <v>47</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="D421" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="422">
@@ -9648,13 +9672,13 @@
         <v>47</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D422" t="s" s="2">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="423">
@@ -9662,13 +9686,13 @@
         <v>47</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1097</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="424">
@@ -9676,13 +9700,13 @@
         <v>47</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="D424" t="s" s="2">
-        <v>1100</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="425">
@@ -9690,13 +9714,13 @@
         <v>47</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="426">
@@ -9704,13 +9728,13 @@
         <v>47</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="427">
@@ -9718,13 +9742,13 @@
         <v>47</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>1107</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="428">
@@ -9732,13 +9756,13 @@
         <v>47</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="D428" t="s" s="2">
-        <v>1109</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="429">
@@ -9746,13 +9770,13 @@
         <v>47</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1112</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="430">
@@ -9760,13 +9784,13 @@
         <v>47</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="D430" t="s" s="2">
-        <v>1115</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="431">
@@ -9774,13 +9798,13 @@
         <v>47</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="D431" t="s" s="2">
-        <v>1118</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="432">
@@ -9788,13 +9812,13 @@
         <v>47</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="D432" t="s" s="2">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="433">
@@ -9802,13 +9826,13 @@
         <v>47</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>1123</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.8.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
